--- a/trendstest.xlsx
+++ b/trendstest.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="query" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="query1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="topic" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="topic1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="overtime" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trendword" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,9 +64,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -397,11 +411,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>保険</t>
+          <t>医療</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +424,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>医療</t>
+          <t>保険</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -427,7 +441,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +450,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>医療 保険 者</t>
+          <t>健康 保険</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -449,7 +463,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>生命 保険 医療 保険</t>
+          <t>生命 保険</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -466,7 +480,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -475,11 +489,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>健康 保険</t>
+          <t>介護 保険</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -488,11 +502,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>生命 保険</t>
+          <t>介護 医療 保険</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -501,11 +515,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>医療 費 控除</t>
+          <t>医療 保険 介護 保険</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +528,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>医療 保険 介護 保険</t>
+          <t>医療 費 控除 保険</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -527,7 +541,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>介護 医療 保険</t>
+          <t>医療 費 控除</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -540,11 +554,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>介護 保険</t>
+          <t>高齢 者 医療 保険</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +567,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>高齢 者</t>
+          <t>医療 保険 と は</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -566,7 +580,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>高齢 者 医療 保険</t>
+          <t>高額 医療</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -579,7 +593,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>医療 保険 と は</t>
+          <t>後期 高齢 者 医療 保険</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -592,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>高額 医療 保険</t>
+          <t>医療 保険 制度</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -605,7 +619,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>高額 医療</t>
+          <t>後期 高齢 者</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -618,11 +632,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>後期 高齢 者 医療 保険</t>
+          <t>高額 医療 費</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -631,11 +645,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>後期 高齢 者</t>
+          <t>社会 保険</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -644,11 +658,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>後期 高齢 者 医療</t>
+          <t>国民 健康 保険</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -657,11 +671,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>社会 保険</t>
+          <t>終身 保険</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -670,11 +684,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>医療 保険 制度</t>
+          <t>医療 保険 終身</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -683,11 +697,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>高額 医療 費</t>
+          <t>確定 申告</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -696,11 +710,4786 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>終身 保険</t>
+          <t>入院 保険</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>健康 保険 証 種類</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>医療 保険 ランキング 2018</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>医療 費 控除 の 明細 書</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>医療 費 控除 保険 金</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>医療 費 控除 保険 給付 金</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>居宅 療養 管理 指導</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>確定 申告 医療 控除</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>確定 申告</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>確定 申告 後期 高齢 者 医療 保険 料</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>医療 費 控除 確定 申告</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>介護 保険 医療 費 控除</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>医療 費 確定 申告</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>医療 費 控除 保険 金 補填</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>神奈川 県 医療 従事 者 健康 保険 組合</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>介護 医療 院</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>高額 医療 費 控除</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>確定 申告 医療 費</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>青色 申告</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>持病 が あっ て も 入れる 医療 保険</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>医療 費 控除 保険</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>医療 費 控除</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>医療 費 控除 生命 保険</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>医療 費 控除 保険 外</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ja 共済 医療 保険</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>医療 費 通知</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>formattedValue</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>topic_mid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>topic_title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>topic_type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>250% 増加</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122g8skp&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/g/122g8skp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>税務署</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>170% 増加</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/121_5clz&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/g/121_5clz</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>介護保険法</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>140% 増加</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1229172x&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/g/1229172x</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>医療費控除</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>130% 増加</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122r_fvq&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/g/122r_fvq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>レセプト</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>120% 増加</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/04ccxy&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/m/04ccxy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>チューリッヒ保険</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>保険</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>90% 増加</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/019323&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/m/019323</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>義務</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>80% 増加</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1tdm88v6&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/g/1tdm88v6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>神奈川県医療従事者 健康保険組合</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80% 増加</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/121vr3lx&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>/g/121vr3lx</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>確定申告</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80% 増加</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/187cd7x6&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/g/187cd7x6</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>海外旅行</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>80% 増加</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1hbpx5gr9&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>/g/1hbpx5gr9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>オリックス生命保険</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>会社</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>70% 増加</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1q5br9_2r&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>/g/1q5br9_2r</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>自由診療</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>70% 増加</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/11f006dcyf&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>/g/11f006dcyf</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>療養費</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>70% 増加</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122x8gw5&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>/g/122x8gw5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>日本コープ共済生活協同組合連合会</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>東京 渋谷区の組織</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>70% 増加</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/0bh8wv&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/m/0bh8wv</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>診療報酬</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>60% 増加</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122w5_pk&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>/g/122w5_pk</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>要介護認定</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60% 増加</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/06lry&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>/m/06lry</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>退職</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>60% 増加</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/028gm&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>/m/028gm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>損害賠償</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>50% 増加</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122mr0f7&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>/g/122mr0f7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>医療費</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>50% 増加</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/035zrc&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>/m/035zrc</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>世帯</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40% 増加</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/098wr&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/m/098wr</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>社会</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>組織の種類</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>formattedValue</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>hasData</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>topic_mid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>topic_title</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>topic_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/03xks&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/m/03xks</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>保険</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/01mw2x&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/m/01mw2x</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>医療</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/02gqxg&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/m/02gqxg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>医療保険</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122mr0f7&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/g/122mr0f7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>医療費</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1229172x&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/g/1229172x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>医療費控除</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/08cwls&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/m/08cwls</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>介護</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1q6jj6p1j&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>/g/1q6jj6p1j</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>健康保険</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/021wy4&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/m/021wy4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>生命保険</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/01hbgs&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/m/01hbgs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>高齢者</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/04c9s4&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/m/04c9s4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>介護保険</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1221bnhs&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/g/1221bnhs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>後期高齢者医療制度</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/121vr3lx&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/g/121vr3lx</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>確定申告</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/04nr2&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/m/04nr2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>生命</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/06wyc&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/m/06wyc</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>社会保障</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/0g559hq&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>/m/0g559hq</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>国民健康保険</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/0qcr0&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>/m/0qcr0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>悪性腫瘍</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/121nm7w5&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>/g/121nm7w5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>高額療養費</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1222cknq&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>/g/1222cknq</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/05fh2&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>/m/05fh2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>看護</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>職業</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/01xs7c&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>/m/01xs7c</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>アフラック生命保険</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>保険</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/01rqfh&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>/m/01rqfh</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/122z2f_y&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>/g/122z2f_y</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>共済</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/098wr&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>/m/098wr</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>社会</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>組織の種類</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/m/0by51&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>/m/0by51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>年金</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>/trends/explore?q=/g/1237282v&amp;date=2018-01-01+2018-6-30&amp;geo=JP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>/g/1237282v</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>手術</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>トピック</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>geoName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>医療保険</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>三重県</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>佐賀県</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>兵庫県</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>千葉県</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>和歌山県</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>埼玉県</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>大分県</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>奈良県</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>宮城県</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>宮崎県</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>富山県</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>山口県</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>山形県</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>山梨県</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>岐阜県</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>岡山県</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>岩手県</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>島根県</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>広島県</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>徳島県</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>愛媛県</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>愛知県</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>新潟県</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>東京都</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>栃木県</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>沖縄県</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>滋賀県</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>熊本県</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>石川県</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>神奈川県</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>福井県</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>福岡県</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>福島県</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>秋田県</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>群馬県</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>茨城県</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>長崎県</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>長野県</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>青森県</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>静岡県</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>香川県</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>高知県</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>鳥取県</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>鹿児島県</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>医療保険</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>isPartial</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43102</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43103</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43104</v>
+      </c>
+      <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43105</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>43106</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>43107</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>43108</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>43109</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B11" t="n">
+        <v>56</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>43111</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>43112</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>43113</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>43114</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>43115</v>
+      </c>
+      <c r="B16" t="n">
+        <v>58</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>43116</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>43117</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>43118</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>43119</v>
+      </c>
+      <c r="B20" t="n">
+        <v>69</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>43120</v>
+      </c>
+      <c r="B21" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>43121</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>43122</v>
+      </c>
+      <c r="B23" t="n">
+        <v>58</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>43123</v>
+      </c>
+      <c r="B24" t="n">
+        <v>64</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>43124</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>43125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>53</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>43126</v>
+      </c>
+      <c r="B27" t="n">
+        <v>53</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>43127</v>
+      </c>
+      <c r="B28" t="n">
+        <v>44</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>43128</v>
+      </c>
+      <c r="B29" t="n">
+        <v>56</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>43129</v>
+      </c>
+      <c r="B30" t="n">
+        <v>77</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>43130</v>
+      </c>
+      <c r="B31" t="n">
+        <v>67</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B33" t="n">
+        <v>63</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>43133</v>
+      </c>
+      <c r="B34" t="n">
+        <v>71</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>43134</v>
+      </c>
+      <c r="B35" t="n">
+        <v>50</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>43135</v>
+      </c>
+      <c r="B36" t="n">
+        <v>45</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>43136</v>
+      </c>
+      <c r="B37" t="n">
+        <v>71</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>43137</v>
+      </c>
+      <c r="B38" t="n">
+        <v>76</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>43138</v>
+      </c>
+      <c r="B39" t="n">
+        <v>73</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>43139</v>
+      </c>
+      <c r="B40" t="n">
+        <v>72</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>43140</v>
+      </c>
+      <c r="B41" t="n">
+        <v>55</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>43141</v>
+      </c>
+      <c r="B42" t="n">
+        <v>46</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>43142</v>
+      </c>
+      <c r="B43" t="n">
+        <v>46</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>43143</v>
+      </c>
+      <c r="B44" t="n">
+        <v>59</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43144</v>
+      </c>
+      <c r="B45" t="n">
+        <v>67</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>43145</v>
+      </c>
+      <c r="B46" t="n">
+        <v>70</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>43146</v>
+      </c>
+      <c r="B47" t="n">
+        <v>74</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>43147</v>
+      </c>
+      <c r="B48" t="n">
+        <v>79</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>43148</v>
+      </c>
+      <c r="B49" t="n">
+        <v>53</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>43149</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>43150</v>
+      </c>
+      <c r="B51" t="n">
+        <v>77</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>43151</v>
+      </c>
+      <c r="B52" t="n">
+        <v>82</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>43152</v>
+      </c>
+      <c r="B53" t="n">
+        <v>92</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>43153</v>
+      </c>
+      <c r="B54" t="n">
+        <v>100</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>43154</v>
+      </c>
+      <c r="B55" t="n">
+        <v>70</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>43155</v>
+      </c>
+      <c r="B56" t="n">
+        <v>65</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>43156</v>
+      </c>
+      <c r="B57" t="n">
+        <v>53</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>43157</v>
+      </c>
+      <c r="B58" t="n">
+        <v>87</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>43158</v>
+      </c>
+      <c r="B59" t="n">
+        <v>92</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B60" t="n">
+        <v>77</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B61" t="n">
+        <v>82</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>43161</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>43162</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>43163</v>
+      </c>
+      <c r="B64" t="n">
+        <v>51</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>43164</v>
+      </c>
+      <c r="B65" t="n">
+        <v>70</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>43165</v>
+      </c>
+      <c r="B66" t="n">
+        <v>80</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>43166</v>
+      </c>
+      <c r="B67" t="n">
+        <v>75</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>43167</v>
+      </c>
+      <c r="B68" t="n">
+        <v>80</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>43168</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>43169</v>
+      </c>
+      <c r="B70" t="n">
+        <v>52</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>43170</v>
+      </c>
+      <c r="B71" t="n">
+        <v>51</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>43171</v>
+      </c>
+      <c r="B72" t="n">
+        <v>75</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>43172</v>
+      </c>
+      <c r="B73" t="n">
+        <v>85</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>43173</v>
+      </c>
+      <c r="B74" t="n">
+        <v>78</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>43174</v>
+      </c>
+      <c r="B75" t="n">
+        <v>55</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>43175</v>
+      </c>
+      <c r="B76" t="n">
+        <v>44</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>43176</v>
+      </c>
+      <c r="B77" t="n">
+        <v>40</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>43177</v>
+      </c>
+      <c r="B78" t="n">
+        <v>31</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>43178</v>
+      </c>
+      <c r="B79" t="n">
+        <v>56</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>43179</v>
+      </c>
+      <c r="B80" t="n">
+        <v>56</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>43180</v>
+      </c>
+      <c r="B81" t="n">
+        <v>43</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>43181</v>
+      </c>
+      <c r="B82" t="n">
+        <v>57</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>43182</v>
+      </c>
+      <c r="B83" t="n">
+        <v>53</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>43183</v>
+      </c>
+      <c r="B84" t="n">
+        <v>47</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>43184</v>
+      </c>
+      <c r="B85" t="n">
+        <v>39</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>43185</v>
+      </c>
+      <c r="B86" t="n">
+        <v>66</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>43186</v>
+      </c>
+      <c r="B87" t="n">
+        <v>66</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>43187</v>
+      </c>
+      <c r="B88" t="n">
+        <v>64</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B89" t="n">
+        <v>54</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>43189</v>
+      </c>
+      <c r="B90" t="n">
+        <v>46</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>43190</v>
+      </c>
+      <c r="B91" t="n">
+        <v>40</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B92" t="n">
+        <v>27</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>43192</v>
+      </c>
+      <c r="B93" t="n">
+        <v>54</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>43193</v>
+      </c>
+      <c r="B94" t="n">
+        <v>56</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>43194</v>
+      </c>
+      <c r="B95" t="n">
+        <v>49</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>43195</v>
+      </c>
+      <c r="B96" t="n">
+        <v>60</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>43196</v>
+      </c>
+      <c r="B97" t="n">
+        <v>45</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>43197</v>
+      </c>
+      <c r="B98" t="n">
+        <v>44</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>43198</v>
+      </c>
+      <c r="B99" t="n">
+        <v>29</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>43199</v>
+      </c>
+      <c r="B100" t="n">
+        <v>52</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>43200</v>
+      </c>
+      <c r="B101" t="n">
+        <v>59</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>43201</v>
+      </c>
+      <c r="B102" t="n">
+        <v>60</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>43202</v>
+      </c>
+      <c r="B103" t="n">
+        <v>65</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>43203</v>
+      </c>
+      <c r="B104" t="n">
+        <v>49</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>43204</v>
+      </c>
+      <c r="B105" t="n">
+        <v>35</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>43205</v>
+      </c>
+      <c r="B106" t="n">
+        <v>37</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>43206</v>
+      </c>
+      <c r="B107" t="n">
+        <v>53</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B108" t="n">
+        <v>59</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>43208</v>
+      </c>
+      <c r="B109" t="n">
+        <v>58</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>43209</v>
+      </c>
+      <c r="B110" t="n">
+        <v>52</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>43210</v>
+      </c>
+      <c r="B111" t="n">
+        <v>62</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>43211</v>
+      </c>
+      <c r="B112" t="n">
+        <v>29</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>43212</v>
+      </c>
+      <c r="B113" t="n">
+        <v>35</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n">
+        <v>43213</v>
+      </c>
+      <c r="B114" t="n">
+        <v>59</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n">
+        <v>43214</v>
+      </c>
+      <c r="B115" t="n">
+        <v>41</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n">
+        <v>43215</v>
+      </c>
+      <c r="B116" t="n">
+        <v>50</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n">
+        <v>43216</v>
+      </c>
+      <c r="B117" t="n">
+        <v>56</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n">
+        <v>43217</v>
+      </c>
+      <c r="B118" t="n">
+        <v>44</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n">
+        <v>43218</v>
+      </c>
+      <c r="B119" t="n">
+        <v>28</v>
+      </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n">
+        <v>43219</v>
+      </c>
+      <c r="B120" t="n">
+        <v>25</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B121" t="n">
+        <v>41</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B122" t="n">
+        <v>45</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n">
+        <v>43222</v>
+      </c>
+      <c r="B123" t="n">
+        <v>43</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n">
+        <v>43223</v>
+      </c>
+      <c r="B124" t="n">
+        <v>26</v>
+      </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n">
+        <v>43224</v>
+      </c>
+      <c r="B125" t="n">
+        <v>25</v>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n">
+        <v>43225</v>
+      </c>
+      <c r="B126" t="n">
+        <v>27</v>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n">
+        <v>43226</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n">
+        <v>43227</v>
+      </c>
+      <c r="B128" t="n">
+        <v>62</v>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n">
+        <v>43228</v>
+      </c>
+      <c r="B129" t="n">
+        <v>55</v>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B130" t="n">
+        <v>49</v>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n">
+        <v>43230</v>
+      </c>
+      <c r="B131" t="n">
+        <v>57</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n">
+        <v>43231</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n">
+        <v>43232</v>
+      </c>
+      <c r="B133" t="n">
+        <v>30</v>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n">
+        <v>43233</v>
+      </c>
+      <c r="B134" t="n">
+        <v>36</v>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n">
+        <v>43234</v>
+      </c>
+      <c r="B135" t="n">
+        <v>59</v>
+      </c>
+      <c r="C135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B136" t="n">
+        <v>45</v>
+      </c>
+      <c r="C136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B137" t="n">
+        <v>46</v>
+      </c>
+      <c r="C137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B138" t="n">
+        <v>52</v>
+      </c>
+      <c r="C138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n">
+        <v>43238</v>
+      </c>
+      <c r="B139" t="n">
+        <v>54</v>
+      </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n">
+        <v>43239</v>
+      </c>
+      <c r="B140" t="n">
+        <v>38</v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n">
+        <v>43240</v>
+      </c>
+      <c r="B141" t="n">
+        <v>34</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n">
+        <v>43241</v>
+      </c>
+      <c r="B142" t="n">
+        <v>60</v>
+      </c>
+      <c r="C142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n">
+        <v>43242</v>
+      </c>
+      <c r="B143" t="n">
+        <v>55</v>
+      </c>
+      <c r="C143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B144" t="n">
+        <v>49</v>
+      </c>
+      <c r="C144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n">
+        <v>43244</v>
+      </c>
+      <c r="B145" t="n">
+        <v>62</v>
+      </c>
+      <c r="C145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="n">
+        <v>43245</v>
+      </c>
+      <c r="B146" t="n">
+        <v>50</v>
+      </c>
+      <c r="C146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="n">
+        <v>43246</v>
+      </c>
+      <c r="B147" t="n">
+        <v>28</v>
+      </c>
+      <c r="C147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="n">
+        <v>43247</v>
+      </c>
+      <c r="B148" t="n">
+        <v>36</v>
+      </c>
+      <c r="C148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="n">
+        <v>43248</v>
+      </c>
+      <c r="B149" t="n">
+        <v>52</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="n">
+        <v>43249</v>
+      </c>
+      <c r="B150" t="n">
+        <v>57</v>
+      </c>
+      <c r="C150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B151" t="n">
+        <v>55</v>
+      </c>
+      <c r="C151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B152" t="n">
+        <v>48</v>
+      </c>
+      <c r="C152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B153" t="n">
+        <v>44</v>
+      </c>
+      <c r="C153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="n">
+        <v>43253</v>
+      </c>
+      <c r="B154" t="n">
+        <v>31</v>
+      </c>
+      <c r="C154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="n">
+        <v>43254</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27</v>
+      </c>
+      <c r="C155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="n">
+        <v>43255</v>
+      </c>
+      <c r="B156" t="n">
+        <v>58</v>
+      </c>
+      <c r="C156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="n">
+        <v>43256</v>
+      </c>
+      <c r="B157" t="n">
+        <v>58</v>
+      </c>
+      <c r="C157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B158" t="n">
+        <v>59</v>
+      </c>
+      <c r="C158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="n">
+        <v>43258</v>
+      </c>
+      <c r="B159" t="n">
+        <v>59</v>
+      </c>
+      <c r="C159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="n">
+        <v>43259</v>
+      </c>
+      <c r="B160" t="n">
+        <v>39</v>
+      </c>
+      <c r="C160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="n">
+        <v>43260</v>
+      </c>
+      <c r="B161" t="n">
+        <v>39</v>
+      </c>
+      <c r="C161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="n">
+        <v>43261</v>
+      </c>
+      <c r="B162" t="n">
+        <v>39</v>
+      </c>
+      <c r="C162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="n">
+        <v>43262</v>
+      </c>
+      <c r="B163" t="n">
+        <v>56</v>
+      </c>
+      <c r="C163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="n">
+        <v>43263</v>
+      </c>
+      <c r="B164" t="n">
+        <v>51</v>
+      </c>
+      <c r="C164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B165" t="n">
+        <v>57</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="n">
+        <v>43265</v>
+      </c>
+      <c r="B166" t="n">
+        <v>51</v>
+      </c>
+      <c r="C166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="n">
+        <v>43266</v>
+      </c>
+      <c r="B167" t="n">
+        <v>46</v>
+      </c>
+      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="n">
+        <v>43267</v>
+      </c>
+      <c r="B168" t="n">
+        <v>37</v>
+      </c>
+      <c r="C168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="n">
+        <v>43268</v>
+      </c>
+      <c r="B169" t="n">
+        <v>40</v>
+      </c>
+      <c r="C169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="n">
+        <v>43269</v>
+      </c>
+      <c r="B170" t="n">
+        <v>46</v>
+      </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="n">
+        <v>43270</v>
+      </c>
+      <c r="B171" t="n">
+        <v>57</v>
+      </c>
+      <c r="C171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B172" t="n">
+        <v>53</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="n">
+        <v>43272</v>
+      </c>
+      <c r="B173" t="n">
+        <v>54</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="n">
+        <v>43273</v>
+      </c>
+      <c r="B174" t="n">
+        <v>48</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="n">
+        <v>43274</v>
+      </c>
+      <c r="B175" t="n">
+        <v>32</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="n">
+        <v>43275</v>
+      </c>
+      <c r="B176" t="n">
+        <v>29</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="n">
+        <v>43276</v>
+      </c>
+      <c r="B177" t="n">
+        <v>58</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="n">
+        <v>43277</v>
+      </c>
+      <c r="B178" t="n">
+        <v>54</v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B179" t="n">
+        <v>50</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="n">
+        <v>43279</v>
+      </c>
+      <c r="B180" t="n">
+        <v>44</v>
+      </c>
+      <c r="C180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B181" t="n">
+        <v>47</v>
+      </c>
+      <c r="C181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B182" t="n">
+        <v>40</v>
+      </c>
+      <c r="C182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>石崎徹</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>仮面ライダーゼロワン</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>東京タピオカランド</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>芥川賞</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>石原裕次郎</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ぎそうふりんどらま</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>テスラ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>島崎遥香</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mステ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>徴用工問題</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>インフルエンサー</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>純アリス</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>綾部翔</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>台風</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>りんごちゃん</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TWO WEEKS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>スカイライン</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>堀ちえみ</t>
+        </is>
       </c>
     </row>
   </sheetData>
